--- a/data/dishname_cut.xlsx
+++ b/data/dishname_cut.xlsx
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
